--- a/Docs/kiểm thử design.xlsx
+++ b/Docs/kiểm thử design.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ĐỒ ÁN 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F01FF-03E6-4618-AE0F-E1C28F1026D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0347066B-0814-4B6B-9EF3-708E66160520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng ký" sheetId="1" r:id="rId1"/>
     <sheet name="Đăng nhập" sheetId="2" r:id="rId2"/>
-    <sheet name="Lấy lại mật khẩu" sheetId="3" r:id="rId3"/>
+    <sheet name="Quên mật khẩu " sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="166">
   <si>
     <t>Kiểm thử viên:</t>
   </si>
@@ -420,12 +420,6 @@
     <t>TCGD-3.07</t>
   </si>
   <si>
-    <t>Kiểm tra kích thuớc, màu nền, màu chữ, phông chữ, magrin, name, role butto button Hủy</t>
-  </si>
-  <si>
-    <t>Hiển thị với kích thước 75,4px x 45,6px, background #4a4f59, text color #ffffff,  phông chữ Roboto Slab, Margin 0px 10px 0px 0px, padding 14px 25px, name: Hủy, role: button.</t>
-  </si>
-  <si>
     <t>TCGD-3.08</t>
   </si>
   <si>
@@ -480,46 +474,92 @@
  kiếm </t>
   </si>
   <si>
+    <t>Kiểm tra phông chữ text "Chúng 
+tôi sẽ gửi thông tin lấy lại mật khẩu vào email đăng ký tài khoản của bạn"</t>
+  </si>
+  <si>
+    <t>Có màu #34373e</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào link Trang chủ color sẽ chuyển từ #4a4f59 thành #ee7920.</t>
+  </si>
+  <si>
+    <t>TCGD-3.19</t>
+  </si>
+  <si>
+    <t>TCGD-3.20</t>
+  </si>
+  <si>
+    <t>Kiểm tra nghĩa của tiếng nhật có  phù hợp không.</t>
+  </si>
+  <si>
+    <t>Dịch ra tiếng Việt là "Đổi mới trong
+ việc nuôi dạy con."</t>
+  </si>
+  <si>
+    <t>TCGD-3.21</t>
+  </si>
+  <si>
+    <t>Kiểm tra link Giới thiệu thương 
+hiệu" khi hover có đổi màu đúng theo mô tả không?</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào link Trang chủ 
+color sẽ chuyển từ #ffffff thành #b9d7f5</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào link Trang chủ 
+color sẽ chuyển từ #ffffff thành #b9d7f6</t>
+  </si>
+  <si>
+    <t>TCGD-3.22</t>
+  </si>
+  <si>
+    <t>Icon Tìm kiếm có kích thước 14,86px x 16px</t>
+  </si>
+  <si>
     <t xml:space="preserve">B1: Truy cập vào website 
-https://https://sachtaodan.vn
+https://sachtaodan.vn/
 B2: Chọn Quên mật khẩu
 B3: Quan sát hiển thị
 </t>
   </si>
   <si>
-    <t>Hiển thị với kích thước 1693,33 x 318
- x 40px</t>
-  </si>
-  <si>
-    <t>Hiển thị với kích thước 1693,33 x 256,78
- x 124,61px</t>
-  </si>
-  <si>
-    <t>Hiển thị với kích thước 53,7 px x 43 px background #ffffff text color #e5e5e5  phông chữ Roboto Slab, Margin 0px 10px 0px 0px, padding 14px 25px, name: Gửi, role: button.</t>
-  </si>
-  <si>
-    <t>Kiểm tra phông chữ text "Chúng tôi sẽ gửi cho bạn một email để kích hoạt việc đặt lại mật khẩu."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Chúng tôi sẽ gửi cho bạn một email để kích hoạt việc đặt lại mật khẩu." có phông chữ arial</t>
-  </si>
-  <si>
-    <t>Có màu #222222</t>
-  </si>
-  <si>
-    <t>Có màu #222223</t>
-  </si>
-  <si>
-    <t>Kiểm tra màu  "Đặt lại mật khẩu" có color đúng chưa?</t>
-  </si>
-  <si>
-    <t>Khi di chuyển vào nút Đăng kí background-color sẽ chuyển từ #3bb2ca thành #222222</t>
-  </si>
-  <si>
-    <t>Khi di chuyển vào nút Đăng kí background-color sẽ chuyển từ #3bb2ca thành #222223</t>
-  </si>
-  <si>
-    <t>Icon Tìm kiếm có kích thước 13px x 14px</t>
+    <t>Hiển thị với kích thước 54px x 43px, background #ffffff text color #909295  phông chữ Arial, Margin 0px 10px 0px 0px, padding 14px 25px, name: Gửi, role: button.</t>
+  </si>
+  <si>
+    <t>Kiểm tra link Hủy có hoạt động đúng hay không?</t>
+  </si>
+  <si>
+    <t>Hiển thị trang Đăng nhập.</t>
+  </si>
+  <si>
+    <t>Vị trí ở trên nút Đăng ký.</t>
+  </si>
+  <si>
+    <t>Kiểm tra kích thước hình ảnh logo Sách Tao Đàn.</t>
+  </si>
+  <si>
+    <t>Hình ảnh logo Combi có kích thước 160px x 61px.</t>
+  </si>
+  <si>
+    <t>Form phải có kích thước 410px x 42px.</t>
+  </si>
+  <si>
+    <t>Kiểm tra kích thước trường email</t>
+  </si>
+  <si>
+    <t>TCGD-3.23</t>
+  </si>
+  <si>
+    <t>Trường email có kích thước 164px x 34px.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Chúng tôi sẽ gửi thông tin lấy lại mật khẩu vào email đăng ký tài khoản của bạn" có phông chữ Arial.</t>
+  </si>
+  <si>
+    <t>Kiểm tra text "Lấy lại mật khẩu" có
+ color đúng chưa?</t>
   </si>
 </sst>
 </file>
@@ -554,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -788,6 +834,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1077,7 +1126,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1094,10 +1143,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1110,10 +1159,10 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1126,10 +1175,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="9">
         <v>45516</v>
       </c>
@@ -1142,10 +1191,10 @@
       <c r="A4" s="11"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9">
         <v>41985</v>
       </c>
@@ -1158,10 +1207,10 @@
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1621,7 +1670,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3"/>
@@ -1630,7 +1679,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1654,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766D67C3-028A-4B1B-91A7-C26725D01A8F}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1672,10 +1721,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1688,10 +1737,10 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1704,10 +1753,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="9">
         <v>45516</v>
       </c>
@@ -1720,10 +1769,10 @@
       <c r="A4" s="11"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9">
         <v>41985</v>
       </c>
@@ -1736,10 +1785,10 @@
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2254,7 +2303,7 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2275,31 +2324,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAC0801-AB08-41B3-AEE7-20E3DAAADD6E}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7843008C-6F50-4CF0-8445-78A569C6DC83}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2312,10 +2359,10 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="4" t="s">
         <v>111</v>
       </c>
@@ -2328,10 +2375,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="9">
         <v>45516</v>
       </c>
@@ -2344,10 +2391,10 @@
       <c r="A4" s="11"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="9">
         <v>41985</v>
       </c>
@@ -2360,10 +2407,10 @@
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2379,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2395,7 +2442,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2418,7 +2465,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="30.6">
+    <row r="9" spans="1:10" ht="20.399999999999999">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2508,7 @@
         <v>114</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -2487,7 +2534,7 @@
         <v>114</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>33</v>
@@ -2513,13 +2560,13 @@
         <v>114</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>24</v>
@@ -2539,13 +2586,13 @@
         <v>114</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>24</v>
@@ -2554,7 +2601,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="100.8">
+    <row r="14" spans="1:10" ht="86.4">
       <c r="A14" s="3" t="s">
         <v>119</v>
       </c>
@@ -2565,7 +2612,7 @@
         <v>114</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>66</v>
@@ -2591,13 +2638,13 @@
         <v>114</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>24</v>
@@ -2606,24 +2653,24 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="86.4">
+    <row r="16" spans="1:10" ht="72">
       <c r="A16" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>24</v>
@@ -2632,9 +2679,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="86.4">
+    <row r="17" spans="1:10" ht="115.2">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>106</v>
@@ -2643,13 +2690,13 @@
         <v>114</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>24</v>
@@ -2660,22 +2707,22 @@
     </row>
     <row r="18" spans="1:10" ht="72">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>24</v>
@@ -2686,22 +2733,22 @@
     </row>
     <row r="19" spans="1:10" ht="72">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>24</v>
@@ -2712,22 +2759,22 @@
     </row>
     <row r="20" spans="1:10" ht="72">
       <c r="A20" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>24</v>
@@ -2738,22 +2785,22 @@
     </row>
     <row r="21" spans="1:10" ht="72">
       <c r="A21" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>24</v>
@@ -2764,22 +2811,22 @@
     </row>
     <row r="22" spans="1:10" ht="72">
       <c r="A22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>24</v>
@@ -2790,22 +2837,22 @@
     </row>
     <row r="23" spans="1:10" ht="72">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>165</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>109</v>
+        <v>153</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>24</v>
@@ -2816,22 +2863,22 @@
     </row>
     <row r="24" spans="1:10" ht="72">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D24" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="F24" s="16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>24</v>
@@ -2842,22 +2889,22 @@
     </row>
     <row r="25" spans="1:10" ht="72">
       <c r="A25" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>24</v>
@@ -2868,22 +2915,22 @@
     </row>
     <row r="26" spans="1:10" ht="72">
       <c r="A26" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>24</v>
@@ -2894,22 +2941,22 @@
     </row>
     <row r="27" spans="1:10" ht="72">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>24</v>
@@ -2917,6 +2964,133 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="72">
+      <c r="A28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="72">
+      <c r="A29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="72">
+      <c r="A30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="72">
+      <c r="A31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="72">
+      <c r="A32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2928,7 +3102,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G27" xr:uid="{4310EE95-26D0-4202-BBC2-A46D95A8948A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G32" xr:uid="{AD03DD3B-E305-4DD5-A077-EE3361BA9C6A}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Docs/kiểm thử design.xlsx
+++ b/Docs/kiểm thử design.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoAn3-1012227_12522T.1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0347066B-0814-4B6B-9EF3-708E66160520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E54D97-C1E7-458B-A070-E905024B0044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng ký" sheetId="1" r:id="rId1"/>
     <sheet name="Đăng nhập" sheetId="2" r:id="rId2"/>
     <sheet name="Quên mật khẩu " sheetId="4" r:id="rId3"/>
+    <sheet name="Tìm kiếm " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="196">
   <si>
     <t>Kiểm thử viên:</t>
   </si>
@@ -478,38 +479,13 @@
 tôi sẽ gửi thông tin lấy lại mật khẩu vào email đăng ký tài khoản của bạn"</t>
   </si>
   <si>
-    <t>Có màu #34373e</t>
-  </si>
-  <si>
-    <t>Khi di chuyển vào link Trang chủ color sẽ chuyển từ #4a4f59 thành #ee7920.</t>
-  </si>
-  <si>
     <t>TCGD-3.19</t>
   </si>
   <si>
     <t>TCGD-3.20</t>
   </si>
   <si>
-    <t>Kiểm tra nghĩa của tiếng nhật có  phù hợp không.</t>
-  </si>
-  <si>
-    <t>Dịch ra tiếng Việt là "Đổi mới trong
- việc nuôi dạy con."</t>
-  </si>
-  <si>
     <t>TCGD-3.21</t>
-  </si>
-  <si>
-    <t>Kiểm tra link Giới thiệu thương 
-hiệu" khi hover có đổi màu đúng theo mô tả không?</t>
-  </si>
-  <si>
-    <t>Khi di chuyển vào link Trang chủ 
-color sẽ chuyển từ #ffffff thành #b9d7f5</t>
-  </si>
-  <si>
-    <t>Khi di chuyển vào link Trang chủ 
-color sẽ chuyển từ #ffffff thành #b9d7f6</t>
   </si>
   <si>
     <t>TCGD-3.22</t>
@@ -528,12 +504,6 @@
     <t>Hiển thị với kích thước 54px x 43px, background #ffffff text color #909295  phông chữ Arial, Margin 0px 10px 0px 0px, padding 14px 25px, name: Gửi, role: button.</t>
   </si>
   <si>
-    <t>Kiểm tra link Hủy có hoạt động đúng hay không?</t>
-  </si>
-  <si>
-    <t>Hiển thị trang Đăng nhập.</t>
-  </si>
-  <si>
     <t>Vị trí ở trên nút Đăng ký.</t>
   </si>
   <si>
@@ -558,15 +528,133 @@
     <t xml:space="preserve"> "Chúng tôi sẽ gửi thông tin lấy lại mật khẩu vào email đăng ký tài khoản của bạn" có phông chữ Arial.</t>
   </si>
   <si>
-    <t>Kiểm tra text "Lấy lại mật khẩu" có
- color đúng chưa?</t>
+    <t>Kiểm tra link Hủy có font chữ đúng không?</t>
+  </si>
+  <si>
+    <t>font Arial</t>
+  </si>
+  <si>
+    <t>Kiểm tra text "THÔNG TIN CÁ NHÂN" Có màu đúng chưa?</t>
+  </si>
+  <si>
+    <t>Có màu #3bb2ca</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào link Trang chủ không đổi màu #91a0bc.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào link Trang chủ color sẽ chuyển từ #898989 thành #3bb2ca</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào nút Đăng kí background-color sẽ chuyển từ #3bb2ca thành #797979.</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào nút Đăng kí background-color sẽ chuyển từ #222222 thành #3bb2ca</t>
+  </si>
+  <si>
+    <t>TCGD-3.24</t>
+  </si>
+  <si>
+    <t>Kiểm tra font chữ mục "LIÊN HÊ VỚI CHÚNG TÔI".</t>
+  </si>
+  <si>
+    <t>Mục "LIÊN HÊ VỚI CHÚNG TÔI" có font chữ Arial.</t>
+  </si>
+  <si>
+    <t>Kiểm tra kích thước .footer-top-area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> footer-top-area có kích thước 2034.13px 
+x 197px.</t>
+  </si>
+  <si>
+    <t>Kiểm tra màu background footer-top-area.</t>
+  </si>
+  <si>
+    <t>Background có màu #f8f8f8.</t>
+  </si>
+  <si>
+    <t>Người dùng đang ở giao diện 
+Trang chủ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra kích thước div Tìm kiếm </t>
+  </si>
+  <si>
+    <t>Hiển thị với kích thước 140px x 42px.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra kích thước icon Tìm kiếm </t>
+  </si>
+  <si>
+    <t>Hiển thị với kích thước 40px x 40px.</t>
+  </si>
+  <si>
+    <t>Kiểm tra kích thước thông báo tìm kiếm.</t>
+  </si>
+  <si>
+    <t>Kiểm tra kích thước logo Sách Tao Đàn</t>
+  </si>
+  <si>
+    <t>Kiểm tra kích thước hiển thị sản phẩm.</t>
+  </si>
+  <si>
+    <t>Logo Sách Tao Đàn có kích thước 160px x 61px.</t>
+  </si>
+  <si>
+    <t>Hiển thị với kích thước 877px x 56px</t>
+  </si>
+  <si>
+    <t>Hiển thị với kích thước 219px x 299px.</t>
+  </si>
+  <si>
+    <t>Kiểm tra kích thước Giỏ hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị với kích thước 199px x 42px.</t>
+  </si>
+  <si>
+    <t>Kiểm tra khoảng cách từ header-top-bar xuống mainmenu-area.</t>
+  </si>
+  <si>
+    <t>Khoảng cách 122px.</t>
+  </si>
+  <si>
+    <t>Kiểm tra mã màu của footer.</t>
+  </si>
+  <si>
+    <t>Có mã màu #212121.</t>
+  </si>
+  <si>
+    <t>Kiểm khi khi hover vào Chính sách vận chuyển có đổi màu không?</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào Chính sách vận chuyển sẽ chuyển từ #797979 thành #3bb2ca</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi hover vào icon hòm thư có đổi màu không?</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào icon hòm thư sẽ chuyển từ #797979 thành #3bb2ca</t>
+  </si>
+  <si>
+    <t>Khi di chuyển vào icon hòm thư không chuyển màu #797979</t>
+  </si>
+  <si>
+    <t>Kiểm tra mã màu phần footer-top-area.</t>
+  </si>
+  <si>
+    <t>Có màu #f8f8f8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +681,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +711,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC6C6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -839,8 +940,71 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1143,10 +1307,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1159,10 +1323,10 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1175,10 +1339,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="9">
         <v>45516</v>
       </c>
@@ -1191,10 +1355,10 @@
       <c r="A4" s="11"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9">
         <v>41985</v>
       </c>
@@ -1207,10 +1371,10 @@
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1704,7 +1868,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1721,10 +1885,10 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1737,10 +1901,10 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1753,10 +1917,10 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="9">
         <v>45516</v>
       </c>
@@ -1769,10 +1933,10 @@
       <c r="A4" s="11"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9">
         <v>41985</v>
       </c>
@@ -1785,10 +1949,10 @@
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2325,772 +2489,794 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7843008C-6F50-4CF0-8445-78A569C6DC83}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" customWidth="1"/>
     <col min="7" max="7" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="19" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="19" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="9">
+      <c r="E3" s="39"/>
+      <c r="F3" s="30">
         <v>45516</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="9">
+      <c r="E4" s="39"/>
+      <c r="F4" s="30">
         <v>41985</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="35">
         <v>22</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="35">
         <v>22</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="35">
         <v>0</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="20.399999999999999">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="72">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="72">
+      <c r="A11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="72">
+      <c r="A12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="72">
+      <c r="A13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="72">
+      <c r="A14" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="72">
+      <c r="A15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="72">
+      <c r="A16" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="115.2">
+      <c r="A17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="72">
+      <c r="A18" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="72">
+      <c r="A19" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="72">
+      <c r="A20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="72">
+      <c r="A21" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="72">
+      <c r="A22" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="72">
+      <c r="A23" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="72">
+      <c r="A24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="72">
+      <c r="A25" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="72">
+      <c r="A26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" ht="72">
+      <c r="A27" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" ht="72">
+      <c r="A28" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" s="19" customFormat="1" ht="70.2" customHeight="1">
+      <c r="A29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" ht="72">
+      <c r="A30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" ht="72">
+      <c r="A31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" ht="72">
+      <c r="A32" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="72">
-      <c r="A11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B32" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="72">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="D32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" ht="33" customHeight="1">
+      <c r="A33" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="72">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="86.4">
-      <c r="A14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="86.4">
-      <c r="A15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="72">
-      <c r="A16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="115.2">
-      <c r="A17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="72">
-      <c r="A18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="72">
-      <c r="A19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="72">
-      <c r="A20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="72">
-      <c r="A21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="72">
-      <c r="A22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="72">
-      <c r="A23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="72">
-      <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="72">
-      <c r="A25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="D33" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="72">
-      <c r="A26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="72">
-      <c r="A27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="72">
-      <c r="A28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="72">
-      <c r="A29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="72">
-      <c r="A30" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="72">
-      <c r="A31" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="72">
-      <c r="A32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="E33" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3102,7 +3288,613 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G32" xr:uid="{AD03DD3B-E305-4DD5-A077-EE3361BA9C6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G33" xr:uid="{AD03DD3B-E305-4DD5-A077-EE3361BA9C6A}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BD02D7-236C-4C83-904B-1863A08EAFA3}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.33203125" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="9">
+        <v>45516</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="9">
+        <v>41985</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="14">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.399999999999999">
+      <c r="A9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="112.2" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="72">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="72">
+      <c r="A12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="72">
+      <c r="A13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="72">
+      <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="72">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="72">
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="72">
+      <c r="A17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="72">
+      <c r="A18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="72">
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="72">
+      <c r="A20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="72">
+      <c r="A21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="72">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="72">
+      <c r="A23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="72">
+      <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="72">
+      <c r="A25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="72">
+      <c r="A26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G26" xr:uid="{70CB3458-C980-4ABE-84B6-2F1B06697A22}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
